--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Commodities/CarbonAssets.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Commodities/CarbonAssets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Commodities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Commodities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D609AB-96DF-45A1-8DBC-13C1BF279D2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59003DAA-0242-4726-A46E-2A1CA1F8C2E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12315" windowHeight="13035" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commodity Curve" sheetId="2" r:id="rId1"/>
@@ -30,12 +30,20 @@
     <definedName name="IRCurve6m">[1]IRBootstrap6m!$D$5</definedName>
     <definedName name="StrikeQuoteUnits">[2]Configuration!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Instrument</t>
   </si>
@@ -284,6 +292,24 @@
   </si>
   <si>
     <t>ICE_CER</t>
+  </si>
+  <si>
+    <t>Commodity Metrics</t>
+  </si>
+  <si>
+    <t>MarketQuote</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>ForwardDelta</t>
+  </si>
+  <si>
+    <t>SpotDelta</t>
+  </si>
+  <si>
+    <t>The analytical model still needs to calculate these.</t>
   </si>
 </sst>
 </file>
@@ -303,7 +329,7 @@
     <numFmt numFmtId="172" formatCode="d/mm/yy;@"/>
     <numFmt numFmtId="173" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -594,6 +620,12 @@
     <font>
       <b/>
       <i/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1508,7 +1540,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="19" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="44" borderId="24" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1740,6 +1772,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="68" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="105">
     <cellStyle name="_Copy of Portfolios to Archeus 6-3-04 (2)" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1957,301 +1993,301 @@
                 <c:formatCode>d/m/yyyy;@</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>43216</c:v>
+                  <c:v>43640</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43217</c:v>
+                  <c:v>43641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43218</c:v>
+                  <c:v>43642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43219</c:v>
+                  <c:v>43643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43220</c:v>
+                  <c:v>43644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43221</c:v>
+                  <c:v>43645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43222</c:v>
+                  <c:v>43646</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43223</c:v>
+                  <c:v>43647</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43224</c:v>
+                  <c:v>43648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43225</c:v>
+                  <c:v>43649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43226</c:v>
+                  <c:v>43650</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43227</c:v>
+                  <c:v>43651</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43228</c:v>
+                  <c:v>43652</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43229</c:v>
+                  <c:v>43653</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43230</c:v>
+                  <c:v>43654</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43231</c:v>
+                  <c:v>43655</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43232</c:v>
+                  <c:v>43656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43233</c:v>
+                  <c:v>43657</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43234</c:v>
+                  <c:v>43658</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43235</c:v>
+                  <c:v>43659</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43236</c:v>
+                  <c:v>43660</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43237</c:v>
+                  <c:v>43661</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43238</c:v>
+                  <c:v>43662</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43239</c:v>
+                  <c:v>43663</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43240</c:v>
+                  <c:v>43664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43241</c:v>
+                  <c:v>43665</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43242</c:v>
+                  <c:v>43666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43243</c:v>
+                  <c:v>43667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43244</c:v>
+                  <c:v>43668</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43245</c:v>
+                  <c:v>43669</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43246</c:v>
+                  <c:v>43670</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43247</c:v>
+                  <c:v>43671</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43248</c:v>
+                  <c:v>43672</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43249</c:v>
+                  <c:v>43673</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43250</c:v>
+                  <c:v>43674</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43251</c:v>
+                  <c:v>43675</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43252</c:v>
+                  <c:v>43676</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43253</c:v>
+                  <c:v>43677</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43254</c:v>
+                  <c:v>43678</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43255</c:v>
+                  <c:v>43679</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43256</c:v>
+                  <c:v>43680</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43257</c:v>
+                  <c:v>43681</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43258</c:v>
+                  <c:v>43682</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43259</c:v>
+                  <c:v>43683</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43260</c:v>
+                  <c:v>43684</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43261</c:v>
+                  <c:v>43685</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43262</c:v>
+                  <c:v>43686</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43263</c:v>
+                  <c:v>43687</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43264</c:v>
+                  <c:v>43688</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43265</c:v>
+                  <c:v>43689</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43266</c:v>
+                  <c:v>43690</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43267</c:v>
+                  <c:v>43691</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43268</c:v>
+                  <c:v>43692</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43269</c:v>
+                  <c:v>43693</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43270</c:v>
+                  <c:v>43694</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43271</c:v>
+                  <c:v>43695</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43272</c:v>
+                  <c:v>43696</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43273</c:v>
+                  <c:v>43697</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43274</c:v>
+                  <c:v>43698</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43275</c:v>
+                  <c:v>43699</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43276</c:v>
+                  <c:v>43700</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43277</c:v>
+                  <c:v>43701</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43278</c:v>
+                  <c:v>43702</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43279</c:v>
+                  <c:v>43703</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43280</c:v>
+                  <c:v>43704</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43281</c:v>
+                  <c:v>43705</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43282</c:v>
+                  <c:v>43706</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43283</c:v>
+                  <c:v>43707</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43284</c:v>
+                  <c:v>43708</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43285</c:v>
+                  <c:v>43709</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43286</c:v>
+                  <c:v>43710</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43287</c:v>
+                  <c:v>43711</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43288</c:v>
+                  <c:v>43712</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43289</c:v>
+                  <c:v>43713</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43290</c:v>
+                  <c:v>43714</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43291</c:v>
+                  <c:v>43715</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43292</c:v>
+                  <c:v>43716</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43293</c:v>
+                  <c:v>43717</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43294</c:v>
+                  <c:v>43718</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43295</c:v>
+                  <c:v>43719</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43296</c:v>
+                  <c:v>43720</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43297</c:v>
+                  <c:v>43721</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43298</c:v>
+                  <c:v>43722</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43299</c:v>
+                  <c:v>43723</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43300</c:v>
+                  <c:v>43724</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43301</c:v>
+                  <c:v>43725</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43302</c:v>
+                  <c:v>43726</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43303</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43304</c:v>
+                  <c:v>43728</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43305</c:v>
+                  <c:v>43729</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43306</c:v>
+                  <c:v>43730</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43307</c:v>
+                  <c:v>43731</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43308</c:v>
+                  <c:v>43732</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43309</c:v>
+                  <c:v>43733</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43310</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43311</c:v>
+                  <c:v>43735</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43312</c:v>
+                  <c:v>43736</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43313</c:v>
+                  <c:v>43737</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43314</c:v>
+                  <c:v>43738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2263,301 +2299,301 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>5.6999999999999993</c:v>
+                  <c:v>5.7000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6499999999999995</c:v>
+                  <c:v>5.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4333333333333327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5666666666666655</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.44</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5200000000000005</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.56</c:v>
+                  <c:v>5.6043478260869559</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6</c:v>
+                  <c:v>5.6086956521739122</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6043478260869559</c:v>
+                  <c:v>5.6130434782608685</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6086956521739131</c:v>
+                  <c:v>5.6173913043478256</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6130434782608694</c:v>
+                  <c:v>5.6217391304347819</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6173913043478265</c:v>
+                  <c:v>5.6260869565217382</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6217391304347828</c:v>
+                  <c:v>5.6304347826086953</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.6260869565217382</c:v>
+                  <c:v>5.6347826086956516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.6304347826086953</c:v>
+                  <c:v>5.6391304347826088</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6347826086956516</c:v>
+                  <c:v>5.6434782608695651</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.6391304347826088</c:v>
+                  <c:v>5.6478260869565213</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.6434782608695651</c:v>
+                  <c:v>5.6521739130434776</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6478260869565213</c:v>
+                  <c:v>5.6565217391304339</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6521739130434776</c:v>
+                  <c:v>5.660869565217391</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.6565217391304348</c:v>
+                  <c:v>5.6652173913043482</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.6608695652173919</c:v>
+                  <c:v>5.6695652173913045</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.6652173913043482</c:v>
+                  <c:v>5.6739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.6695652173913045</c:v>
+                  <c:v>5.678260869565217</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6739130434782608</c:v>
+                  <c:v>5.6826086956521733</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.678260869565217</c:v>
+                  <c:v>5.6869565217391305</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.6826086956521742</c:v>
+                  <c:v>5.6913043478260867</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.6869565217391305</c:v>
+                  <c:v>5.695652173913043</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.6913043478260876</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.695652173913043</c:v>
+                  <c:v>5.7032258064516137</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.7</c:v>
+                  <c:v>5.7064516129032263</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.7142857142857144</c:v>
+                  <c:v>5.709677419354839</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.7285714285714286</c:v>
+                  <c:v>5.7129032258064516</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.7428571428571429</c:v>
+                  <c:v>5.7161290322580642</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.7571428571428571</c:v>
+                  <c:v>5.7193548387096769</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.7714285714285714</c:v>
+                  <c:v>5.7225806451612904</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.7857142857142856</c:v>
+                  <c:v>5.725806451612903</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>5.7290322580645157</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7322580645161292</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.7354838709677418</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7387096774193544</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.741935483870968</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.7451612903225806</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7483870967741932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.7516129032258068</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7548387096774194</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.758064516129032</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.7612903225806456</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.7645161290322582</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.7677419354838708</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.7709677419354835</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.774193548387097</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7774193548387096</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7806451612903222</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7838709677419358</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.7870967741935484</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.790322580645161</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.7935483870967737</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.7967741935483872</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>5.8</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.8142857142857141</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.8285714285714283</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.8428571428571434</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.8571428571428568</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.8714285714285719</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.8857142857142861</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="64">
+                  <c:v>5.8086956521739124</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.8173913043478258</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.8260869565217392</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.8347826086956518</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.8434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.8521739130434778</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.8608695652173912</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.8695652173913038</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.8782608695652172</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.8869565217391306</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.8956521739130432</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.9043478260869557</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.9130434782608692</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.9217391304347826</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.9304347826086952</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.9391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.947826086956522</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.9565217391304355</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.965217391304348</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.9739130434782606</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.982608695652174</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.9913043478260866</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.9874999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.9624999999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.9375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.9250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.9125000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>5.9</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.9142857142857146</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.9285714285714288</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.9428571428571431</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.9571428571428573</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.9714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.9857142857142858</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.9833333333333334</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.9666666666666659</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.9499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.9333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.9166666666666661</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.8999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.8833333333333329</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.8666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.85</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.8166666666666664</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.8035714285714288</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.8071428571428569</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.8107142857142859</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.8142857142857141</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.8178571428571422</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.8214285714285712</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5.8250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.8285714285714283</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.8321428571428573</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.8357142857142854</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.8392857142857144</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.8428571428571425</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.8464285714285715</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.8500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.8535714285714286</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.8571428571428577</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.8607142857142858</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.8642857142857139</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.8678571428571429</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.871428571428571</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.875</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.878571428571429</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.8821428571428571</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.8857142857142861</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>5.8892857142857142</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.8928571428571432</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5.8964285714285714</c:v>
-                </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.9</c:v>
+                  <c:v>5.9024096385542171</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.9039215686274513</c:v>
+                  <c:v>5.9048192771084347</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.9078431372549023</c:v>
+                  <c:v>5.9072289156626505</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.9117647058823533</c:v>
+                  <c:v>5.9096385542168681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,7 +3380,7 @@
       </c>
       <c r="C3" s="53">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -3353,7 +3389,7 @@
       </c>
       <c r="C4" s="53">
         <f ca="1">C3</f>
-        <v>43216</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3767,7 +3803,7 @@
       </c>
       <c r="C3" s="73">
         <f ca="1">NOW()</f>
-        <v>43216.600425115743</v>
+        <v>43640.676165509256</v>
       </c>
       <c r="E3" s="74" t="s">
         <v>26</v>
@@ -3806,7 +3842,7 @@
       </c>
       <c r="C4" s="78">
         <f ca="1">C3</f>
-        <v>43216.600425115743</v>
+        <v>43640.676165509256</v>
       </c>
       <c r="E4" s="74" t="s">
         <v>27</v>
@@ -4253,7 +4289,7 @@
       </c>
       <c r="C18" s="85">
         <f ca="1">C3</f>
-        <v>43216.600425115743</v>
+        <v>43640.676165509256</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="95">
@@ -4878,7 +4914,7 @@
       <c r="C35"/>
       <c r="E35" s="88">
         <f ca="1">$C$3+182</f>
-        <v>43398.600425115743</v>
+        <v>43822.676165509256</v>
       </c>
       <c r="F35" s="99">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E35, F$34)</f>
@@ -4921,7 +4957,7 @@
     <row r="36" spans="1:16">
       <c r="E36" s="88">
         <f ca="1">E35+182</f>
-        <v>43580.600425115743</v>
+        <v>44004.676165509256</v>
       </c>
       <c r="F36" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E36, F$34)</f>
@@ -4963,7 +4999,7 @@
     <row r="37" spans="1:16">
       <c r="E37" s="88">
         <f t="shared" ref="E37:E45" ca="1" si="2">E36+182</f>
-        <v>43762.600425115743</v>
+        <v>44186.676165509256</v>
       </c>
       <c r="F37" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E37, F$34)</f>
@@ -5006,7 +5042,7 @@
       <c r="A38" s="94"/>
       <c r="E38" s="88">
         <f ca="1">E37+182</f>
-        <v>43944.600425115743</v>
+        <v>44368.676165509256</v>
       </c>
       <c r="F38" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E38, F$34)</f>
@@ -5048,7 +5084,7 @@
     <row r="39" spans="1:16">
       <c r="E39" s="88">
         <f ca="1">E38+182</f>
-        <v>44126.600425115743</v>
+        <v>44550.676165509256</v>
       </c>
       <c r="F39" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E39, F$34)</f>
@@ -5090,7 +5126,7 @@
     <row r="40" spans="1:16">
       <c r="E40" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>44308.600425115743</v>
+        <v>44732.676165509256</v>
       </c>
       <c r="F40" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E40, F$34)</f>
@@ -5132,7 +5168,7 @@
     <row r="41" spans="1:16">
       <c r="E41" s="88">
         <f ca="1">E40+182</f>
-        <v>44490.600425115743</v>
+        <v>44914.676165509256</v>
       </c>
       <c r="F41" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E41, F$34)</f>
@@ -5174,7 +5210,7 @@
     <row r="42" spans="1:16">
       <c r="E42" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>44672.600425115743</v>
+        <v>45096.676165509256</v>
       </c>
       <c r="F42" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E42, F$34)</f>
@@ -5216,7 +5252,7 @@
     <row r="43" spans="1:16">
       <c r="E43" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>44854.600425115743</v>
+        <v>45278.676165509256</v>
       </c>
       <c r="F43" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E43, F$34)</f>
@@ -5258,7 +5294,7 @@
     <row r="44" spans="1:16">
       <c r="E44" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>45036.600425115743</v>
+        <v>45460.676165509256</v>
       </c>
       <c r="F44" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E44, F$34)</f>
@@ -5300,7 +5336,7 @@
     <row r="45" spans="1:16">
       <c r="E45" s="88">
         <f t="shared" ca="1" si="2"/>
-        <v>45218.600425115743</v>
+        <v>45642.676165509256</v>
       </c>
       <c r="F45" s="75">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E45, F$34)</f>
@@ -5342,7 +5378,7 @@
     <row r="46" spans="1:16" ht="13.5" thickBot="1">
       <c r="E46" s="93">
         <f ca="1">E45+182</f>
-        <v>45400.600425115743</v>
+        <v>45824.676165509256</v>
       </c>
       <c r="F46" s="83">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetExpiryDateStrikeValue($C$1, $C$4, $E46, F$34)</f>
@@ -5396,10 +5432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5407,13 +5443,16 @@
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" thickBot="1">
@@ -5457,7 +5496,7 @@
       </c>
       <c r="D2" s="100" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.CreateAsset(A2,$E$38,B2,C2)</f>
-        <v>EUR-CommodityForward-ICE.CER-1D.26/04/2018</v>
+        <v>EUR-CommodityForward-ICE.CER-1D.24/06/2019</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>14</v>
@@ -5480,8 +5519,8 @@
         <v>EUR-CommoditySpot-ICE.CER</v>
       </c>
       <c r="B3" s="105">
-        <f>'Commodity Curve'!C20</f>
-        <v>5.5</v>
+        <f>'Commodity Curve'!C20+0.01</f>
+        <v>5.51</v>
       </c>
       <c r="C3" s="107">
         <f>'Commodity Curve'!D20</f>
@@ -5489,49 +5528,51 @@
       </c>
       <c r="D3" s="33" t="str">
         <f t="array" aca="1" ref="D3:D34" ca="1">_xll.HLV5r3.Financial.Cache.CreateAssets(A3:A15,$E$38,B3:B15,C3:C15)</f>
-        <v>EUR-CommoditySpot-ICE.CER.26/04/2018</v>
-      </c>
-      <c r="E3" s="28"/>
+        <v>EUR-CommoditySpot-ICE.CER.24/06/2019</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F3" s="29"/>
       <c r="G3" s="35" t="str">
-        <f t="array" aca="1" ref="G3:P34" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet(E2:E2, E36, D3:D15, E38)</f>
-        <v>EUR-CommoditySpot-ICE.CER.26/04/2018</v>
+        <f t="array" aca="1" ref="G3:P34" ca="1">_xll.HLV5r3.Financial.Cache.EvaluateMetricsForAssetSet(E2:E7, E36, D3:D15, E38)</f>
+        <v>EUR-CommoditySpot-ICE.CER.24/06/2019</v>
       </c>
       <c r="H3" s="36" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I3" s="36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" s="36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K3" s="37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" s="36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M3" s="36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N3" s="37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O3" s="36" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P3" s="37" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I3" s="36">
+        <f ca="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="J3" s="36" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K3" s="37">
+        <f ca="1"/>
+        <v>5.51</v>
+      </c>
+      <c r="L3" s="36" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M3" s="36">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="37" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O3" s="36">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P3" s="37" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5540,8 +5581,8 @@
         <v>EUR-CommodityForward-ICE.CER-1W</v>
       </c>
       <c r="B4" s="105">
-        <f>'Commodity Curve'!C20</f>
-        <v>5.5</v>
+        <f>'Commodity Curve'!C21+0.01</f>
+        <v>5.6099999999999994</v>
       </c>
       <c r="C4" s="107">
         <f>'Commodity Curve'!D20</f>
@@ -5549,49 +5590,51 @@
       </c>
       <c r="D4" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityForward-ICE.CER-1W.26/04/2018</v>
-      </c>
-      <c r="E4" s="43"/>
+        <v>EUR-CommodityForward-ICE.CER-1W.24/06/2019</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="F4" s="44"/>
       <c r="G4" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityForward-ICE.CER-1W.26/04/2018</v>
+        <v>EUR-CommodityForward-ICE.CER-1W.24/06/2019</v>
       </c>
       <c r="H4" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I4" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K4" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M4" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N4" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O4" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P4" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I4" s="30">
+        <f ca="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="J4" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K4" s="39">
+        <f ca="1"/>
+        <v>5.61</v>
+      </c>
+      <c r="L4" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M4" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O4" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5600,8 +5643,8 @@
         <v>EUR-CommodityForward-ICE.CER-1M</v>
       </c>
       <c r="B5" s="105">
-        <f>'Commodity Curve'!C21</f>
-        <v>5.6</v>
+        <f>'Commodity Curve'!C22+0.01</f>
+        <v>5.7099999999999991</v>
       </c>
       <c r="C5" s="107">
         <f>'Commodity Curve'!D21</f>
@@ -5609,49 +5652,51 @@
       </c>
       <c r="D5" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityForward-ICE.CER-1M.26/04/2018</v>
-      </c>
-      <c r="E5" s="43"/>
+        <v>EUR-CommodityForward-ICE.CER-1M.24/06/2019</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>86</v>
+      </c>
       <c r="F5" s="44"/>
       <c r="G5" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityForward-ICE.CER-1M.26/04/2018</v>
+        <v>EUR-CommodityForward-ICE.CER-1M.24/06/2019</v>
       </c>
       <c r="H5" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I5" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K5" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M5" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N5" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O5" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P5" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I5" s="30">
+        <f ca="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="J5" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K5" s="39">
+        <f ca="1"/>
+        <v>5.71</v>
+      </c>
+      <c r="L5" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M5" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O5" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P5" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5660,8 +5705,8 @@
         <v>EUR-CommodityForward-ICE.CER-2M</v>
       </c>
       <c r="B6" s="105">
-        <f>'Commodity Curve'!C22</f>
-        <v>5.6999999999999993</v>
+        <f>'Commodity Curve'!C23+0.01</f>
+        <v>5.8099999999999987</v>
       </c>
       <c r="C6" s="107">
         <f>'Commodity Curve'!D22</f>
@@ -5669,49 +5714,51 @@
       </c>
       <c r="D6" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityForward-ICE.CER-2M.26/04/2018</v>
-      </c>
-      <c r="E6" s="43"/>
+        <v>EUR-CommodityForward-ICE.CER-2M.24/06/2019</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>87</v>
+      </c>
       <c r="F6" s="44"/>
       <c r="G6" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityForward-ICE.CER-2M.26/04/2018</v>
+        <v>EUR-CommodityForward-ICE.CER-2M.24/06/2019</v>
       </c>
       <c r="H6" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I6" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K6" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M6" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N6" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O6" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P6" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I6" s="30">
+        <f ca="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="J6" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K6" s="39">
+        <f ca="1"/>
+        <v>5.81</v>
+      </c>
+      <c r="L6" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M6" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O6" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P6" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5720,8 +5767,8 @@
         <v>EUR-CommodityForward-ICE.CER-3M</v>
       </c>
       <c r="B7" s="105">
-        <f>'Commodity Curve'!C23</f>
-        <v>5.7999999999999989</v>
+        <f>'Commodity Curve'!C24+0.01</f>
+        <v>5.9099999999999984</v>
       </c>
       <c r="C7" s="107">
         <f>'Commodity Curve'!D23</f>
@@ -5729,49 +5776,49 @@
       </c>
       <c r="D7" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityForward-ICE.CER-3M.26/04/2018</v>
+        <v>EUR-CommodityForward-ICE.CER-3M.24/06/2019</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="44"/>
       <c r="G7" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityForward-ICE.CER-3M.26/04/2018</v>
+        <v>EUR-CommodityForward-ICE.CER-3M.24/06/2019</v>
       </c>
       <c r="H7" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I7" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K7" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M7" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N7" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O7" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P7" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I7" s="30">
+        <f ca="1"/>
+        <v>5.9</v>
+      </c>
+      <c r="J7" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K7" s="39">
+        <f ca="1"/>
+        <v>5.91</v>
+      </c>
+      <c r="L7" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M7" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O7" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P7" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5780,8 +5827,8 @@
         <v>EUR-CommodityFuture-ICE.CER-1</v>
       </c>
       <c r="B8" s="105">
-        <f>'Commodity Curve'!C24</f>
-        <v>5.8999999999999986</v>
+        <f>'Commodity Curve'!C25+0.01</f>
+        <v>6.009999999999998</v>
       </c>
       <c r="C8" s="107">
         <f>'Commodity Curve'!D24</f>
@@ -5789,49 +5836,49 @@
       </c>
       <c r="D8" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-1.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-1.24/06/2019</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="44"/>
       <c r="G8" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-1.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-1.24/06/2019</v>
       </c>
       <c r="H8" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I8" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K8" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P8" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I8" s="30">
+        <f ca="1"/>
+        <v>6.01</v>
+      </c>
+      <c r="J8" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K8" s="39">
+        <f ca="1"/>
+        <v>6.01</v>
+      </c>
+      <c r="L8" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M8" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O8" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P8" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5840,8 +5887,8 @@
         <v>EUR-CommodityFuture-ICE.CER-2</v>
       </c>
       <c r="B9" s="105">
-        <f>'Commodity Curve'!C25</f>
-        <v>5.9999999999999982</v>
+        <f>'Commodity Curve'!C26+0.01</f>
+        <v>6.1099999999999977</v>
       </c>
       <c r="C9" s="107">
         <f>'Commodity Curve'!D25</f>
@@ -5849,49 +5896,49 @@
       </c>
       <c r="D9" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-2.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-2.24/06/2019</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="44"/>
       <c r="G9" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-2.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-2.24/06/2019</v>
       </c>
       <c r="H9" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I9" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K9" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N9" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O9" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P9" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I9" s="30">
+        <f ca="1"/>
+        <v>6.11</v>
+      </c>
+      <c r="J9" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K9" s="39">
+        <f ca="1"/>
+        <v>6.11</v>
+      </c>
+      <c r="L9" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M9" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O9" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P9" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5900,8 +5947,8 @@
         <v>EUR-CommodityFuture-ICE.CER-3</v>
       </c>
       <c r="B10" s="105">
-        <f>'Commodity Curve'!C26</f>
-        <v>6.0999999999999979</v>
+        <f>'Commodity Curve'!C27+0.01</f>
+        <v>6.2099999999999973</v>
       </c>
       <c r="C10" s="107">
         <f>'Commodity Curve'!D26</f>
@@ -5909,49 +5956,49 @@
       </c>
       <c r="D10" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-3.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-3.24/06/2019</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="44"/>
       <c r="G10" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-3.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-3.24/06/2019</v>
       </c>
       <c r="H10" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I10" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K10" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N10" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O10" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P10" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I10" s="30">
+        <f ca="1"/>
+        <v>6.21</v>
+      </c>
+      <c r="J10" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K10" s="39">
+        <f ca="1"/>
+        <v>6.21</v>
+      </c>
+      <c r="L10" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M10" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O10" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P10" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5960,8 +6007,8 @@
         <v>EUR-CommodityFuture-ICE.CER-4</v>
       </c>
       <c r="B11" s="105">
-        <f>'Commodity Curve'!C27</f>
-        <v>6.1999999999999975</v>
+        <f>'Commodity Curve'!C28+0.01</f>
+        <v>6.3099999999999969</v>
       </c>
       <c r="C11" s="107">
         <f>'Commodity Curve'!D27</f>
@@ -5969,49 +6016,49 @@
       </c>
       <c r="D11" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-4.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-4.24/06/2019</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
       <c r="G11" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-4.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-4.24/06/2019</v>
       </c>
       <c r="H11" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I11" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K11" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N11" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O11" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P11" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I11" s="30">
+        <f ca="1"/>
+        <v>6.31</v>
+      </c>
+      <c r="J11" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K11" s="39">
+        <f ca="1"/>
+        <v>6.31</v>
+      </c>
+      <c r="L11" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M11" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O11" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P11" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -6020,8 +6067,8 @@
         <v>EUR-CommodityFuture-ICE.CER-5</v>
       </c>
       <c r="B12" s="105">
-        <f>'Commodity Curve'!C28</f>
-        <v>6.2999999999999972</v>
+        <f>'Commodity Curve'!C29+0.01</f>
+        <v>6.4099999999999966</v>
       </c>
       <c r="C12" s="107">
         <f>'Commodity Curve'!D28</f>
@@ -6029,49 +6076,49 @@
       </c>
       <c r="D12" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-5.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-5.24/06/2019</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44"/>
       <c r="G12" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-5.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-5.24/06/2019</v>
       </c>
       <c r="H12" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I12" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K12" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I12" s="30">
+        <f ca="1"/>
+        <v>6.41</v>
+      </c>
+      <c r="J12" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K12" s="39">
+        <f ca="1"/>
+        <v>6.41</v>
+      </c>
+      <c r="L12" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M12" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O12" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P12" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6080,8 +6127,8 @@
         <v>EUR-CommodityFuture-ICE.CER-6</v>
       </c>
       <c r="B13" s="105">
-        <f>'Commodity Curve'!C29</f>
-        <v>6.3999999999999968</v>
+        <f>'Commodity Curve'!C30+0.01</f>
+        <v>6.5099999999999962</v>
       </c>
       <c r="C13" s="107">
         <f>'Commodity Curve'!D29</f>
@@ -6089,49 +6136,49 @@
       </c>
       <c r="D13" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-6.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-6.24/06/2019</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="44"/>
       <c r="G13" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-6.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-6.24/06/2019</v>
       </c>
       <c r="H13" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I13" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K13" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I13" s="30">
+        <f ca="1"/>
+        <v>6.51</v>
+      </c>
+      <c r="J13" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K13" s="39">
+        <f ca="1"/>
+        <v>6.51</v>
+      </c>
+      <c r="L13" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M13" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O13" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P13" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -6140,8 +6187,8 @@
         <v>EUR-CommodityFuture-ICE.CER-7</v>
       </c>
       <c r="B14" s="105">
-        <f>'Commodity Curve'!C30</f>
-        <v>6.4999999999999964</v>
+        <f>'Commodity Curve'!C31+0.01</f>
+        <v>6.6099999999999959</v>
       </c>
       <c r="C14" s="107">
         <f>'Commodity Curve'!D30</f>
@@ -6149,49 +6196,49 @@
       </c>
       <c r="D14" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-7.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-7.24/06/2019</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="44"/>
       <c r="G14" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-7.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-7.24/06/2019</v>
       </c>
       <c r="H14" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I14" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K14" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O14" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I14" s="30">
+        <f ca="1"/>
+        <v>6.61</v>
+      </c>
+      <c r="J14" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K14" s="39">
+        <f ca="1"/>
+        <v>6.61</v>
+      </c>
+      <c r="L14" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M14" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O14" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P14" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6200,8 +6247,8 @@
         <v>EUR-CommodityFuture-ICE.CER-8</v>
       </c>
       <c r="B15" s="105">
-        <f>'Commodity Curve'!C31</f>
-        <v>6.5999999999999961</v>
+        <f>'Commodity Curve'!C32+0.01</f>
+        <v>6.7099999999999955</v>
       </c>
       <c r="C15" s="107">
         <f>'Commodity Curve'!D31</f>
@@ -6209,49 +6256,49 @@
       </c>
       <c r="D15" s="33" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-8.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-8.24/06/2019</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="44"/>
       <c r="G15" s="38" t="str">
         <f ca="1"/>
-        <v>EUR-CommodityFuture-ICE.CER-8.26/04/2018</v>
+        <v>EUR-CommodityFuture-ICE.CER-8.24/06/2019</v>
       </c>
       <c r="H15" s="30" t="str">
         <f ca="1"/>
         <v>ImpliedQuote</v>
       </c>
-      <c r="I15" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K15" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="30" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="39" t="e">
-        <f ca="1"/>
-        <v>#N/A</v>
+      <c r="I15" s="30">
+        <f ca="1"/>
+        <v>6.71</v>
+      </c>
+      <c r="J15" s="30" t="str">
+        <f ca="1"/>
+        <v>MarketQuote</v>
+      </c>
+      <c r="K15" s="39">
+        <f ca="1"/>
+        <v>6.71</v>
+      </c>
+      <c r="L15" s="30" t="str">
+        <f ca="1"/>
+        <v>NPV</v>
+      </c>
+      <c r="M15" s="30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="39" t="str">
+        <f ca="1"/>
+        <v>ForwardDelta</v>
+      </c>
+      <c r="O15" s="30">
+        <f ca="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="P15" s="39" t="str">
+        <f ca="1"/>
+        <v>SpotDelta</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7225,7 +7272,9 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="109" t="s">
+        <v>83</v>
+      </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -7242,6 +7291,13 @@
       <c r="P35" s="26"/>
     </row>
     <row r="36" spans="1:16">
+      <c r="B36" s="33" t="str">
+        <f t="array" ref="B36:B42">_xll.HLV5r3.Financial.Cache.SupportedCommodityMetrics()</f>
+        <v>IndexAtMaturity</v>
+      </c>
+      <c r="C36" s="110" t="s">
+        <v>88</v>
+      </c>
       <c r="D36" s="101" t="s">
         <v>58</v>
       </c>
@@ -7251,6 +7307,10 @@
       </c>
     </row>
     <row r="37" spans="1:16">
+      <c r="B37" s="33" t="str">
+        <v>ImpliedQuote</v>
+      </c>
+      <c r="C37" s="110"/>
       <c r="D37" s="101" t="s">
         <v>59</v>
       </c>
@@ -7260,15 +7320,45 @@
       </c>
     </row>
     <row r="38" spans="1:16">
+      <c r="B38" s="33" t="str">
+        <v>MarketQuote</v>
+      </c>
+      <c r="C38" s="110"/>
       <c r="D38" s="101" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="103">
         <f ca="1">'Commodity Curve'!C3</f>
-        <v>43216</v>
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="B39" s="33" t="str">
+        <v>NPV</v>
+      </c>
+      <c r="C39" s="110"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="B40" s="33" t="str">
+        <v>ForwardDelta</v>
+      </c>
+      <c r="C40" s="110"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="B41" s="33" t="str">
+        <v>SpotDelta</v>
+      </c>
+      <c r="C41" s="110"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="B42" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C36:C41"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7305,991 +7395,991 @@
     <row r="2" spans="1:4">
       <c r="A2" s="48">
         <f ca="1">'Commodity Curve'!C3</f>
-        <v>43216</v>
+        <v>43640</v>
       </c>
       <c r="B2" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A2)</f>
-        <v>5.6999999999999993</v>
+        <v>5.7000000000000011</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="49">
         <f t="shared" ref="A3:A66" ca="1" si="0">A2+1</f>
-        <v>43217</v>
+        <v>43641</v>
       </c>
       <c r="B3" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A3)</f>
-        <v>5.6499999999999995</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43218</v>
+        <v>43642</v>
       </c>
       <c r="B4" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A4)</f>
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43219</v>
+        <v>43643</v>
       </c>
       <c r="B5" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A5)</f>
-        <v>5.55</v>
+        <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43220</v>
+        <v>43644</v>
       </c>
       <c r="B6" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A6)</f>
-        <v>5.5</v>
+        <v>5.4333333333333327</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43221</v>
+        <v>43645</v>
       </c>
       <c r="B7" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A7)</f>
-        <v>5.45</v>
+        <v>5.4666666666666668</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43222</v>
+        <v>43646</v>
       </c>
       <c r="B8" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A8)</f>
-        <v>5.4</v>
+        <v>5.4999999999999991</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43223</v>
+        <v>43647</v>
       </c>
       <c r="B9" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A9)</f>
-        <v>5.44</v>
+        <v>5.5333333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43224</v>
+        <v>43648</v>
       </c>
       <c r="B10" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A10)</f>
-        <v>5.48</v>
+        <v>5.5666666666666655</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43225</v>
+        <v>43649</v>
       </c>
       <c r="B11" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A11)</f>
-        <v>5.5200000000000005</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43226</v>
+        <v>43650</v>
       </c>
       <c r="B12" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A12)</f>
-        <v>5.56</v>
+        <v>5.6043478260869559</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43227</v>
+        <v>43651</v>
       </c>
       <c r="B13" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A13)</f>
-        <v>5.6</v>
+        <v>5.6086956521739122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43228</v>
+        <v>43652</v>
       </c>
       <c r="B14" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A14)</f>
-        <v>5.6043478260869559</v>
+        <v>5.6130434782608685</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43229</v>
+        <v>43653</v>
       </c>
       <c r="B15" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A15)</f>
-        <v>5.6086956521739131</v>
+        <v>5.6173913043478256</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43230</v>
+        <v>43654</v>
       </c>
       <c r="B16" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A16)</f>
-        <v>5.6130434782608694</v>
+        <v>5.6217391304347819</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43231</v>
+        <v>43655</v>
       </c>
       <c r="B17" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A17)</f>
-        <v>5.6173913043478265</v>
+        <v>5.6260869565217382</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43232</v>
+        <v>43656</v>
       </c>
       <c r="B18" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A18)</f>
-        <v>5.6217391304347828</v>
+        <v>5.6304347826086953</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43233</v>
+        <v>43657</v>
       </c>
       <c r="B19" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A19)</f>
-        <v>5.6260869565217382</v>
+        <v>5.6347826086956516</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43234</v>
+        <v>43658</v>
       </c>
       <c r="B20" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A20)</f>
-        <v>5.6304347826086953</v>
+        <v>5.6391304347826088</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43235</v>
+        <v>43659</v>
       </c>
       <c r="B21" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A21)</f>
-        <v>5.6347826086956516</v>
+        <v>5.6434782608695651</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43236</v>
+        <v>43660</v>
       </c>
       <c r="B22" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A22)</f>
-        <v>5.6391304347826088</v>
+        <v>5.6478260869565213</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43237</v>
+        <v>43661</v>
       </c>
       <c r="B23" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A23)</f>
-        <v>5.6434782608695651</v>
+        <v>5.6521739130434776</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43238</v>
+        <v>43662</v>
       </c>
       <c r="B24" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A24)</f>
-        <v>5.6478260869565213</v>
+        <v>5.6565217391304339</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43239</v>
+        <v>43663</v>
       </c>
       <c r="B25" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A25)</f>
-        <v>5.6521739130434776</v>
+        <v>5.660869565217391</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43240</v>
+        <v>43664</v>
       </c>
       <c r="B26" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A26)</f>
-        <v>5.6565217391304348</v>
+        <v>5.6652173913043482</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43241</v>
+        <v>43665</v>
       </c>
       <c r="B27" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A27)</f>
-        <v>5.6608695652173919</v>
+        <v>5.6695652173913045</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43242</v>
+        <v>43666</v>
       </c>
       <c r="B28" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A28)</f>
-        <v>5.6652173913043482</v>
+        <v>5.6739130434782608</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43243</v>
+        <v>43667</v>
       </c>
       <c r="B29" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A29)</f>
-        <v>5.6695652173913045</v>
+        <v>5.678260869565217</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43244</v>
+        <v>43668</v>
       </c>
       <c r="B30" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A30)</f>
-        <v>5.6739130434782608</v>
+        <v>5.6826086956521733</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43245</v>
+        <v>43669</v>
       </c>
       <c r="B31" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A31)</f>
-        <v>5.678260869565217</v>
+        <v>5.6869565217391305</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43246</v>
+        <v>43670</v>
       </c>
       <c r="B32" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A32)</f>
-        <v>5.6826086956521742</v>
+        <v>5.6913043478260867</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43247</v>
+        <v>43671</v>
       </c>
       <c r="B33" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A33)</f>
-        <v>5.6869565217391305</v>
+        <v>5.695652173913043</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43248</v>
+        <v>43672</v>
       </c>
       <c r="B34" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A34)</f>
-        <v>5.6913043478260876</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43249</v>
+        <v>43673</v>
       </c>
       <c r="B35" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A35)</f>
-        <v>5.695652173913043</v>
+        <v>5.7032258064516137</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43250</v>
+        <v>43674</v>
       </c>
       <c r="B36" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A36)</f>
-        <v>5.7</v>
+        <v>5.7064516129032263</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43251</v>
+        <v>43675</v>
       </c>
       <c r="B37" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A37)</f>
-        <v>5.7142857142857144</v>
+        <v>5.709677419354839</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43252</v>
+        <v>43676</v>
       </c>
       <c r="B38" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A38)</f>
-        <v>5.7285714285714286</v>
+        <v>5.7129032258064516</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43253</v>
+        <v>43677</v>
       </c>
       <c r="B39" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A39)</f>
-        <v>5.7428571428571429</v>
+        <v>5.7161290322580642</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43254</v>
+        <v>43678</v>
       </c>
       <c r="B40" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A40)</f>
-        <v>5.7571428571428571</v>
+        <v>5.7193548387096769</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43255</v>
+        <v>43679</v>
       </c>
       <c r="B41" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A41)</f>
-        <v>5.7714285714285714</v>
+        <v>5.7225806451612904</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43256</v>
+        <v>43680</v>
       </c>
       <c r="B42" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A42)</f>
-        <v>5.7857142857142856</v>
+        <v>5.725806451612903</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43257</v>
+        <v>43681</v>
       </c>
       <c r="B43" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A43)</f>
-        <v>5.8</v>
+        <v>5.7290322580645157</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43258</v>
+        <v>43682</v>
       </c>
       <c r="B44" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A44)</f>
-        <v>5.8142857142857141</v>
+        <v>5.7322580645161292</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43259</v>
+        <v>43683</v>
       </c>
       <c r="B45" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A45)</f>
-        <v>5.8285714285714283</v>
+        <v>5.7354838709677418</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43260</v>
+        <v>43684</v>
       </c>
       <c r="B46" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A46)</f>
-        <v>5.8428571428571434</v>
+        <v>5.7387096774193544</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43261</v>
+        <v>43685</v>
       </c>
       <c r="B47" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A47)</f>
-        <v>5.8571428571428568</v>
+        <v>5.741935483870968</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43262</v>
+        <v>43686</v>
       </c>
       <c r="B48" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A48)</f>
-        <v>5.8714285714285719</v>
+        <v>5.7451612903225806</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43263</v>
+        <v>43687</v>
       </c>
       <c r="B49" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A49)</f>
-        <v>5.8857142857142861</v>
+        <v>5.7483870967741932</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43264</v>
+        <v>43688</v>
       </c>
       <c r="B50" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A50)</f>
-        <v>5.9</v>
+        <v>5.7516129032258068</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43265</v>
+        <v>43689</v>
       </c>
       <c r="B51" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A51)</f>
-        <v>5.9142857142857146</v>
+        <v>5.7548387096774194</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43266</v>
+        <v>43690</v>
       </c>
       <c r="B52" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A52)</f>
-        <v>5.9285714285714288</v>
+        <v>5.758064516129032</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43267</v>
+        <v>43691</v>
       </c>
       <c r="B53" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A53)</f>
-        <v>5.9428571428571431</v>
+        <v>5.7612903225806456</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43268</v>
+        <v>43692</v>
       </c>
       <c r="B54" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A54)</f>
-        <v>5.9571428571428573</v>
+        <v>5.7645161290322582</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43269</v>
+        <v>43693</v>
       </c>
       <c r="B55" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A55)</f>
-        <v>5.9714285714285715</v>
+        <v>5.7677419354838708</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43270</v>
+        <v>43694</v>
       </c>
       <c r="B56" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A56)</f>
-        <v>5.9857142857142858</v>
+        <v>5.7709677419354835</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43271</v>
+        <v>43695</v>
       </c>
       <c r="B57" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A57)</f>
-        <v>6</v>
+        <v>5.774193548387097</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43272</v>
+        <v>43696</v>
       </c>
       <c r="B58" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A58)</f>
-        <v>5.9833333333333334</v>
+        <v>5.7774193548387096</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43273</v>
+        <v>43697</v>
       </c>
       <c r="B59" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A59)</f>
-        <v>5.9666666666666659</v>
+        <v>5.7806451612903222</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43274</v>
+        <v>43698</v>
       </c>
       <c r="B60" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A60)</f>
-        <v>5.9499999999999993</v>
+        <v>5.7838709677419358</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43275</v>
+        <v>43699</v>
       </c>
       <c r="B61" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A61)</f>
-        <v>5.9333333333333336</v>
+        <v>5.7870967741935484</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43276</v>
+        <v>43700</v>
       </c>
       <c r="B62" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A62)</f>
-        <v>5.9166666666666661</v>
+        <v>5.790322580645161</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43277</v>
+        <v>43701</v>
       </c>
       <c r="B63" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A63)</f>
-        <v>5.8999999999999995</v>
+        <v>5.7935483870967737</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43278</v>
+        <v>43702</v>
       </c>
       <c r="B64" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A64)</f>
-        <v>5.8833333333333329</v>
+        <v>5.7967741935483872</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43279</v>
+        <v>43703</v>
       </c>
       <c r="B65" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A65)</f>
-        <v>5.8666666666666663</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="49">
         <f t="shared" ca="1" si="0"/>
-        <v>43280</v>
+        <v>43704</v>
       </c>
       <c r="B66" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A66)</f>
-        <v>5.85</v>
+        <v>5.8086956521739124</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="49">
         <f t="shared" ref="A67:A100" ca="1" si="1">A66+1</f>
-        <v>43281</v>
+        <v>43705</v>
       </c>
       <c r="B67" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A67)</f>
-        <v>5.833333333333333</v>
+        <v>5.8173913043478258</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43282</v>
+        <v>43706</v>
       </c>
       <c r="B68" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A68)</f>
-        <v>5.8166666666666664</v>
+        <v>5.8260869565217392</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43283</v>
+        <v>43707</v>
       </c>
       <c r="B69" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A69)</f>
-        <v>5.8</v>
+        <v>5.8347826086956518</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43284</v>
+        <v>43708</v>
       </c>
       <c r="B70" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A70)</f>
-        <v>5.8035714285714288</v>
+        <v>5.8434782608695652</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43285</v>
+        <v>43709</v>
       </c>
       <c r="B71" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A71)</f>
-        <v>5.8071428571428569</v>
+        <v>5.8521739130434778</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43286</v>
+        <v>43710</v>
       </c>
       <c r="B72" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A72)</f>
-        <v>5.8107142857142859</v>
+        <v>5.8608695652173912</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43287</v>
+        <v>43711</v>
       </c>
       <c r="B73" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A73)</f>
-        <v>5.8142857142857141</v>
+        <v>5.8695652173913038</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43288</v>
+        <v>43712</v>
       </c>
       <c r="B74" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A74)</f>
-        <v>5.8178571428571422</v>
+        <v>5.8782608695652172</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43289</v>
+        <v>43713</v>
       </c>
       <c r="B75" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A75)</f>
-        <v>5.8214285714285712</v>
+        <v>5.8869565217391306</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43290</v>
+        <v>43714</v>
       </c>
       <c r="B76" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A76)</f>
-        <v>5.8250000000000002</v>
+        <v>5.8956521739130432</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43291</v>
+        <v>43715</v>
       </c>
       <c r="B77" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A77)</f>
-        <v>5.8285714285714283</v>
+        <v>5.9043478260869557</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43292</v>
+        <v>43716</v>
       </c>
       <c r="B78" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A78)</f>
-        <v>5.8321428571428573</v>
+        <v>5.9130434782608692</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43293</v>
+        <v>43717</v>
       </c>
       <c r="B79" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A79)</f>
-        <v>5.8357142857142854</v>
+        <v>5.9217391304347826</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43294</v>
+        <v>43718</v>
       </c>
       <c r="B80" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A80)</f>
-        <v>5.8392857142857144</v>
+        <v>5.9304347826086952</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43295</v>
+        <v>43719</v>
       </c>
       <c r="B81" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A81)</f>
-        <v>5.8428571428571425</v>
+        <v>5.9391304347826086</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43296</v>
+        <v>43720</v>
       </c>
       <c r="B82" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A82)</f>
-        <v>5.8464285714285715</v>
+        <v>5.947826086956522</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43297</v>
+        <v>43721</v>
       </c>
       <c r="B83" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A83)</f>
-        <v>5.8500000000000005</v>
+        <v>5.9565217391304355</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43298</v>
+        <v>43722</v>
       </c>
       <c r="B84" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A84)</f>
-        <v>5.8535714285714286</v>
+        <v>5.965217391304348</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43299</v>
+        <v>43723</v>
       </c>
       <c r="B85" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A85)</f>
-        <v>5.8571428571428577</v>
+        <v>5.9739130434782606</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43300</v>
+        <v>43724</v>
       </c>
       <c r="B86" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A86)</f>
-        <v>5.8607142857142858</v>
+        <v>5.982608695652174</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43301</v>
+        <v>43725</v>
       </c>
       <c r="B87" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A87)</f>
-        <v>5.8642857142857139</v>
+        <v>5.9913043478260866</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43302</v>
+        <v>43726</v>
       </c>
       <c r="B88" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A88)</f>
-        <v>5.8678571428571429</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43303</v>
+        <v>43727</v>
       </c>
       <c r="B89" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A89)</f>
-        <v>5.871428571428571</v>
+        <v>5.9874999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43304</v>
+        <v>43728</v>
       </c>
       <c r="B90" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A90)</f>
-        <v>5.875</v>
+        <v>5.9749999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43305</v>
+        <v>43729</v>
       </c>
       <c r="B91" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A91)</f>
-        <v>5.878571428571429</v>
+        <v>5.9624999999999995</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43306</v>
+        <v>43730</v>
       </c>
       <c r="B92" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A92)</f>
-        <v>5.8821428571428571</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43307</v>
+        <v>43731</v>
       </c>
       <c r="B93" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A93)</f>
-        <v>5.8857142857142861</v>
+        <v>5.9375</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43308</v>
+        <v>43732</v>
       </c>
       <c r="B94" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A94)</f>
-        <v>5.8892857142857142</v>
+        <v>5.9250000000000007</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43309</v>
+        <v>43733</v>
       </c>
       <c r="B95" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A95)</f>
-        <v>5.8928571428571432</v>
+        <v>5.9125000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43310</v>
+        <v>43734</v>
       </c>
       <c r="B96" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A96)</f>
-        <v>5.8964285714285714</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43311</v>
+        <v>43735</v>
       </c>
       <c r="B97" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A97)</f>
-        <v>5.9</v>
+        <v>5.9024096385542171</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43312</v>
+        <v>43736</v>
       </c>
       <c r="B98" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A98)</f>
-        <v>5.9039215686274513</v>
+        <v>5.9048192771084347</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="49">
         <f t="shared" ca="1" si="1"/>
-        <v>43313</v>
+        <v>43737</v>
       </c>
       <c r="B99" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A99)</f>
-        <v>5.9078431372549023</v>
+        <v>5.9072289156626505</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="12" thickBot="1">
       <c r="A100" s="50">
         <f t="shared" ca="1" si="1"/>
-        <v>43314</v>
+        <v>43738</v>
       </c>
       <c r="B100" s="108">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue('Commodity Curve'!$C$1, A100)</f>
-        <v>5.9117647058823533</v>
+        <v>5.9096385542168681</v>
       </c>
     </row>
   </sheetData>
